--- a/src/main/java/com/tutorials/qa/testdata/tutorialstestdata.xlsx
+++ b/src/main/java/com/tutorials/qa/testdata/tutorialstestdata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14520" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
@@ -29,15 +30,12 @@
   <si>
     <t>Anilkumar</t>
   </si>
-  <si>
-    <t>text</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,7 +164,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -201,7 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,31 +373,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -410,19 +403,19 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
@@ -432,24 +425,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/tutorials/qa/testdata/tutorialstestdata.xlsx
+++ b/src/main/java/com/tutorials/qa/testdata/tutorialstestdata.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14520" windowHeight="6540"/>
+    <workbookView xWindow="5100" yWindow="3900" windowWidth="15030" windowHeight="6615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
@@ -34,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +164,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -198,6 +199,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,20 +375,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,7 +396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -403,19 +405,19 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
@@ -425,24 +427,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
